--- a/docu/TestUploadFolder/admin/Man_Gal_3.xlsx
+++ b/docu/TestUploadFolder/admin/Man_Gal_3.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1EBA5E-E25B-46C2-8E4E-B4EA2CDEFE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="31515" yWindow="330" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,17 +15,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -83,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -365,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -642,19 +632,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -676,7 +666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -690,7 +680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -704,7 +694,7 @@
         <v>44888</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -715,7 +705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -726,7 +716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -737,7 +727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="7">
         <v>6</v>
       </c>
@@ -745,7 +735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -756,7 +746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -767,7 +757,7 @@
         <v>1.557039097626854E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>4</v>
       </c>
@@ -778,7 +768,7 @@
         <v>1.1319736377091124E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -789,7 +779,7 @@
         <v>1.3229884356147569E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -800,7 +790,7 @@
         <v>8.4552815362088894E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -811,7 +801,7 @@
         <v>1.0175948972764553E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -822,7 +812,7 @@
         <v>1.3107143923758399E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -833,7 +823,7 @@
         <v>1.6332547691189085E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -844,7 +834,7 @@
         <v>3.1126452774183345E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -855,7 +845,7 @@
         <v>7.6351575068689781E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>20</v>
       </c>
@@ -866,7 +856,7 @@
         <v>0.2453536366488899</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>22</v>
       </c>
@@ -877,7 +867,7 @@
         <v>0.36525617982951197</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>26</v>
       </c>
@@ -888,7 +878,7 @@
         <v>0.57466947704176607</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>28</v>
       </c>
@@ -899,7 +889,7 @@
         <v>0.60588839834270158</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>30</v>
       </c>
@@ -910,7 +900,7 @@
         <v>0.61033698253023572</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>32</v>
       </c>
@@ -921,7 +911,7 @@
         <v>0.50440450719280316</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>34</v>
       </c>
@@ -932,7 +922,7 @@
         <v>0.4411312773067948</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>36</v>
       </c>
@@ -943,7 +933,7 @@
         <v>0.36726769606316789</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>38</v>
       </c>
@@ -954,7 +944,7 @@
         <v>0.28986868065299293</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>40</v>
       </c>
@@ -965,7 +955,7 @@
         <v>0.25107762904208175</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>45</v>
       </c>
@@ -976,7 +966,7 @@
         <v>0.16249251431003581</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>50</v>
       </c>
@@ -987,7 +977,7 @@
         <v>6.96887265327268E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>55</v>
       </c>
@@ -998,7 +988,7 @@
         <v>2.7601178020744167E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>60</v>
       </c>
@@ -1009,7 +999,7 @@
         <v>9.7524407820827504E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>65</v>
       </c>
@@ -1020,7 +1010,7 @@
         <v>4.4249229993389618E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>70</v>
       </c>
@@ -1031,7 +1021,7 @@
         <v>2.3340627474205378E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>75</v>
       </c>
@@ -1042,7 +1032,7 @@
         <v>1.6892362967677573E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>80</v>
       </c>
@@ -1053,7 +1043,7 @@
         <v>1.3175153630217537E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>85</v>
       </c>
@@ -1064,7 +1054,7 @@
         <v>1.0901226023390667E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>90</v>
       </c>
@@ -1075,7 +1065,7 @@
         <v>9.6991062285711434E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>105</v>
       </c>
@@ -1086,7 +1076,7 @@
         <v>7.4017965693741385E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>120</v>
       </c>
@@ -1097,7 +1087,7 @@
         <v>5.5972360472804773E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>135</v>
       </c>
@@ -1108,7 +1098,7 @@
         <v>5.2247610270029815E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>150</v>
       </c>
@@ -1119,7 +1109,7 @@
         <v>4.2991140561400625E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>165</v>
       </c>
@@ -1130,7 +1120,7 @@
         <v>3.8061079312564044E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>180</v>
       </c>
@@ -1141,7 +1131,7 @@
         <v>3.466274194717404E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
